--- a/data_processing/2024/OES/data/spectra_scaling_dalpha.xlsx
+++ b/data_processing/2024/OES/data/spectra_scaling_dalpha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
         <v>433.98749</v>
       </c>
       <c r="E2" t="n">
-        <v>32479288815271.73</v>
+        <v>33302736195339.95</v>
       </c>
       <c r="F2" t="n">
         <v>-0.05748999999997295</v>
@@ -507,7 +507,7 @@
         <v>433.98749</v>
       </c>
       <c r="E3" t="n">
-        <v>25165786406125.34</v>
+        <v>25803814566204.28</v>
       </c>
       <c r="F3" t="n">
         <v>-0.05748999999997295</v>
@@ -531,7 +531,7 @@
         <v>433.98749</v>
       </c>
       <c r="E4" t="n">
-        <v>25123154907153.24</v>
+        <v>25760102230877.15</v>
       </c>
       <c r="F4" t="n">
         <v>-0.05748999999997295</v>
@@ -555,7 +555,7 @@
         <v>433.98749</v>
       </c>
       <c r="E5" t="n">
-        <v>26184816752523.01</v>
+        <v>26848680388055.98</v>
       </c>
       <c r="F5" t="n">
         <v>-0.05748999999997295</v>
@@ -579,7 +579,7 @@
         <v>433.98749</v>
       </c>
       <c r="E6" t="n">
-        <v>17871949494891.89</v>
+        <v>18325057014332.43</v>
       </c>
       <c r="F6" t="n">
         <v>-0.05748999999997295</v>
@@ -603,7 +603,7 @@
         <v>433.98749</v>
       </c>
       <c r="E7" t="n">
-        <v>19089560113920.9</v>
+        <v>19573537714288.55</v>
       </c>
       <c r="F7" t="n">
         <v>-0.05748999999997295</v>
@@ -627,7 +627,7 @@
         <v>433.98749</v>
       </c>
       <c r="E8" t="n">
-        <v>21353430230303.98</v>
+        <v>21894803727692.43</v>
       </c>
       <c r="F8" t="n">
         <v>-0.05748999999997295</v>
@@ -651,7 +651,7 @@
         <v>433.66614</v>
       </c>
       <c r="E9" t="n">
-        <v>109048567431.1062</v>
+        <v>121353577272.7677</v>
       </c>
       <c r="F9" t="n">
         <v>0.2638600000000224</v>
@@ -675,7 +675,7 @@
         <v>433.98749</v>
       </c>
       <c r="E10" t="n">
-        <v>79097685805412.98</v>
+        <v>81443109428571.41</v>
       </c>
       <c r="F10" t="n">
         <v>-0.05748999999997295</v>
@@ -699,7 +699,7 @@
         <v>433.98749</v>
       </c>
       <c r="E11" t="n">
-        <v>54921394156509.16</v>
+        <v>56549936558980.52</v>
       </c>
       <c r="F11" t="n">
         <v>-0.05748999999997295</v>
@@ -723,7 +723,7 @@
         <v>433.98749</v>
       </c>
       <c r="E12" t="n">
-        <v>45956497324942.22</v>
+        <v>47319210448164.34</v>
       </c>
       <c r="F12" t="n">
         <v>-0.05748999999997295</v>
@@ -747,7 +747,7 @@
         <v>433.98749</v>
       </c>
       <c r="E13" t="n">
-        <v>37661854544599.03</v>
+        <v>38778612923070</v>
       </c>
       <c r="F13" t="n">
         <v>-0.05748999999997295</v>
@@ -771,7 +771,7 @@
         <v>433.98749</v>
       </c>
       <c r="E14" t="n">
-        <v>26701482618698.79</v>
+        <v>27493241409990.3</v>
       </c>
       <c r="F14" t="n">
         <v>-0.05748999999997295</v>
@@ -795,7 +795,7 @@
         <v>433.98749</v>
       </c>
       <c r="E15" t="n">
-        <v>27115903235708.43</v>
+        <v>27919950526911.94</v>
       </c>
       <c r="F15" t="n">
         <v>-0.05748999999997295</v>
@@ -819,7 +819,7 @@
         <v>433.98749</v>
       </c>
       <c r="E16" t="n">
-        <v>20456205028422.19</v>
+        <v>21062777344986.1</v>
       </c>
       <c r="F16" t="n">
         <v>-0.05748999999997295</v>
@@ -843,7 +843,7 @@
         <v>433.98749</v>
       </c>
       <c r="E17" t="n">
-        <v>21652385305943.98</v>
+        <v>22294427048090.8</v>
       </c>
       <c r="F17" t="n">
         <v>-0.05748999999997295</v>
@@ -867,7 +867,7 @@
         <v>433.98749</v>
       </c>
       <c r="E18" t="n">
-        <v>22811568330614.32</v>
+        <v>23487982446895</v>
       </c>
       <c r="F18" t="n">
         <v>-0.05748999999997295</v>
@@ -891,7 +891,7 @@
         <v>433.93719</v>
       </c>
       <c r="E19" t="n">
-        <v>64289000114769.82</v>
+        <v>66840695350615.36</v>
       </c>
       <c r="F19" t="n">
         <v>-0.007189999999980046</v>
@@ -915,7 +915,7 @@
         <v>433.93719</v>
       </c>
       <c r="E20" t="n">
-        <v>51769484163159.66</v>
+        <v>53824267187712.68</v>
       </c>
       <c r="F20" t="n">
         <v>-0.007189999999980046</v>
@@ -939,7 +939,7 @@
         <v>433.93719</v>
       </c>
       <c r="E21" t="n">
-        <v>42589604348231.76</v>
+        <v>44280028687044.3</v>
       </c>
       <c r="F21" t="n">
         <v>-0.007189999999980046</v>
@@ -963,7 +963,7 @@
         <v>433.93719</v>
       </c>
       <c r="E22" t="n">
-        <v>35442404424676</v>
+        <v>36849149192146.41</v>
       </c>
       <c r="F22" t="n">
         <v>-0.007189999999980046</v>
@@ -987,7 +987,7 @@
         <v>433.93719</v>
       </c>
       <c r="E23" t="n">
-        <v>31401012996539.87</v>
+        <v>32647350863374.83</v>
       </c>
       <c r="F23" t="n">
         <v>-0.007189999999980046</v>
@@ -1011,7 +1011,7 @@
         <v>433.93719</v>
       </c>
       <c r="E24" t="n">
-        <v>31563207941644</v>
+        <v>32815983489388</v>
       </c>
       <c r="F24" t="n">
         <v>-0.007189999999980046</v>
@@ -1035,7 +1035,7 @@
         <v>433.91003</v>
       </c>
       <c r="E25" t="n">
-        <v>31915850992491.72</v>
+        <v>33418363146838.54</v>
       </c>
       <c r="F25" t="n">
         <v>0.01997000000000071</v>
@@ -1059,7 +1059,7 @@
         <v>433.93719</v>
       </c>
       <c r="E26" t="n">
-        <v>31615230165850.36</v>
+        <v>32870070528126.05</v>
       </c>
       <c r="F26" t="n">
         <v>-0.007189999999980046</v>
@@ -1083,7 +1083,7 @@
         <v>433.93719</v>
       </c>
       <c r="E27" t="n">
-        <v>29970946566196.91</v>
+        <v>31160523654504.68</v>
       </c>
       <c r="F27" t="n">
         <v>-0.007189999999980046</v>
@@ -1107,7 +1107,7 @@
         <v>433.93719</v>
       </c>
       <c r="E28" t="n">
-        <v>33293287356088.04</v>
+        <v>34614731500195.18</v>
       </c>
       <c r="F28" t="n">
         <v>-0.007189999999980046</v>
@@ -1131,7 +1131,7 @@
         <v>433.93719</v>
       </c>
       <c r="E29" t="n">
-        <v>32803706476449.63</v>
+        <v>34105718661809.49</v>
       </c>
       <c r="F29" t="n">
         <v>-0.007189999999980046</v>
@@ -1155,7 +1155,7 @@
         <v>433.91003</v>
       </c>
       <c r="E30" t="n">
-        <v>72246286959625.72</v>
+        <v>75647447226002.52</v>
       </c>
       <c r="F30" t="n">
         <v>0.01997000000000071</v>
@@ -1179,7 +1179,7 @@
         <v>433.91003</v>
       </c>
       <c r="E31" t="n">
-        <v>70656663128276.61</v>
+        <v>73982988193549</v>
       </c>
       <c r="F31" t="n">
         <v>0.01997000000000071</v>
@@ -1203,7 +1203,7 @@
         <v>433.88287</v>
       </c>
       <c r="E32" t="n">
-        <v>114027810597489.8</v>
+        <v>120243122971215.3</v>
       </c>
       <c r="F32" t="n">
         <v>0.04712999999998146</v>
@@ -1227,7 +1227,7 @@
         <v>433.88287</v>
       </c>
       <c r="E33" t="n">
-        <v>75307482558746.62</v>
+        <v>79412266520912.78</v>
       </c>
       <c r="F33" t="n">
         <v>0.04712999999998146</v>
@@ -1251,7 +1251,7 @@
         <v>433.88287</v>
       </c>
       <c r="E34" t="n">
-        <v>49433531910863.45</v>
+        <v>52128004785091.45</v>
       </c>
       <c r="F34" t="n">
         <v>0.04712999999998146</v>
@@ -1275,7 +1275,7 @@
         <v>433.88287</v>
       </c>
       <c r="E35" t="n">
-        <v>42437384297400.83</v>
+        <v>44750518245602.66</v>
       </c>
       <c r="F35" t="n">
         <v>0.04712999999998146</v>
@@ -1299,7 +1299,7 @@
         <v>433.88287</v>
       </c>
       <c r="E36" t="n">
-        <v>36526599250911.48</v>
+        <v>38517554116261.69</v>
       </c>
       <c r="F36" t="n">
         <v>0.04712999999998146</v>
@@ -1323,7 +1323,7 @@
         <v>433.88287</v>
       </c>
       <c r="E37" t="n">
-        <v>29560997809773.55</v>
+        <v>31172278728911.03</v>
       </c>
       <c r="F37" t="n">
         <v>0.04712999999998146</v>
@@ -1347,7 +1347,7 @@
         <v>433.91003</v>
       </c>
       <c r="E38" t="n">
-        <v>27582051199888.14</v>
+        <v>28880539752782.98</v>
       </c>
       <c r="F38" t="n">
         <v>0.01997000000000071</v>
@@ -1371,7 +1371,7 @@
         <v>433.91003</v>
       </c>
       <c r="E39" t="n">
-        <v>26954860043961.8</v>
+        <v>28223822129425.15</v>
       </c>
       <c r="F39" t="n">
         <v>0.01997000000000071</v>
@@ -1395,7 +1395,7 @@
         <v>433.91003</v>
       </c>
       <c r="E40" t="n">
-        <v>23298319370455.12</v>
+        <v>24395141386518.48</v>
       </c>
       <c r="F40" t="n">
         <v>0.01997000000000071</v>
@@ -1419,9 +1419,33 @@
         <v>433.91003</v>
       </c>
       <c r="E41" t="n">
-        <v>21779044849089.14</v>
+        <v>22804343519756.54</v>
       </c>
       <c r="F41" t="n">
+        <v>0.01997000000000071</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>echelle_20241003</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>MechelleSpect_001.csv</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>433.93</v>
+      </c>
+      <c r="D42" t="n">
+        <v>433.91003</v>
+      </c>
+      <c r="E42" t="n">
+        <v>93517799954142.44</v>
+      </c>
+      <c r="F42" t="n">
         <v>0.01997000000000071</v>
       </c>
     </row>

--- a/data_processing/2024/OES/data/spectra_scaling_dalpha.xlsx
+++ b/data_processing/2024/OES/data/spectra_scaling_dalpha.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>433.93</v>
+        <v>434</v>
       </c>
       <c r="D2" t="n">
         <v>433.98749</v>
@@ -486,7 +486,7 @@
         <v>33302736195339.95</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.05748999999997295</v>
+        <v>0.01251000000002023</v>
       </c>
     </row>
     <row r="3">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>433.93</v>
+        <v>434</v>
       </c>
       <c r="D3" t="n">
         <v>433.98749</v>
@@ -510,7 +510,7 @@
         <v>25803814566204.28</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.05748999999997295</v>
+        <v>0.01251000000002023</v>
       </c>
     </row>
     <row r="4">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>433.93</v>
+        <v>434</v>
       </c>
       <c r="D4" t="n">
         <v>433.98749</v>
@@ -534,7 +534,7 @@
         <v>25760102230877.15</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.05748999999997295</v>
+        <v>0.01251000000002023</v>
       </c>
     </row>
     <row r="5">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>433.93</v>
+        <v>434</v>
       </c>
       <c r="D5" t="n">
         <v>433.98749</v>
@@ -558,7 +558,7 @@
         <v>26848680388055.98</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.05748999999997295</v>
+        <v>0.01251000000002023</v>
       </c>
     </row>
     <row r="6">
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>433.93</v>
+        <v>434</v>
       </c>
       <c r="D6" t="n">
         <v>433.98749</v>
@@ -582,7 +582,7 @@
         <v>18325057014332.43</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.05748999999997295</v>
+        <v>0.01251000000002023</v>
       </c>
     </row>
     <row r="7">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>433.93</v>
+        <v>434</v>
       </c>
       <c r="D7" t="n">
         <v>433.98749</v>
@@ -606,7 +606,7 @@
         <v>19573537714288.55</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.05748999999997295</v>
+        <v>0.01251000000002023</v>
       </c>
     </row>
     <row r="8">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>433.93</v>
+        <v>434</v>
       </c>
       <c r="D8" t="n">
         <v>433.98749</v>
@@ -630,7 +630,7 @@
         <v>21894803727692.43</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.05748999999997295</v>
+        <v>0.01251000000002023</v>
       </c>
     </row>
     <row r="9">
@@ -669,7 +669,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>433.93</v>
+        <v>434</v>
       </c>
       <c r="D10" t="n">
         <v>433.98749</v>
@@ -678,7 +678,7 @@
         <v>81443109428571.41</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.05748999999997295</v>
+        <v>0.01251000000002023</v>
       </c>
     </row>
     <row r="11">
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>433.93</v>
+        <v>434</v>
       </c>
       <c r="D11" t="n">
         <v>433.98749</v>
@@ -702,7 +702,7 @@
         <v>56549936558980.52</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.05748999999997295</v>
+        <v>0.01251000000002023</v>
       </c>
     </row>
     <row r="12">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>433.93</v>
+        <v>434</v>
       </c>
       <c r="D12" t="n">
         <v>433.98749</v>
@@ -726,7 +726,7 @@
         <v>47319210448164.34</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.05748999999997295</v>
+        <v>0.01251000000002023</v>
       </c>
     </row>
     <row r="13">
@@ -741,7 +741,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>433.93</v>
+        <v>434</v>
       </c>
       <c r="D13" t="n">
         <v>433.98749</v>
@@ -750,7 +750,7 @@
         <v>38778612923070</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.05748999999997295</v>
+        <v>0.01251000000002023</v>
       </c>
     </row>
     <row r="14">
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>433.93</v>
+        <v>434</v>
       </c>
       <c r="D14" t="n">
         <v>433.98749</v>
@@ -774,7 +774,7 @@
         <v>27493241409990.3</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.05748999999997295</v>
+        <v>0.01251000000002023</v>
       </c>
     </row>
     <row r="15">
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>433.93</v>
+        <v>434</v>
       </c>
       <c r="D15" t="n">
         <v>433.98749</v>
@@ -798,7 +798,7 @@
         <v>27919950526911.94</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.05748999999997295</v>
+        <v>0.01251000000002023</v>
       </c>
     </row>
     <row r="16">
@@ -813,7 +813,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>433.93</v>
+        <v>434</v>
       </c>
       <c r="D16" t="n">
         <v>433.98749</v>
@@ -822,7 +822,7 @@
         <v>21062777344986.1</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.05748999999997295</v>
+        <v>0.01251000000002023</v>
       </c>
     </row>
     <row r="17">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>433.93</v>
+        <v>434</v>
       </c>
       <c r="D17" t="n">
         <v>433.98749</v>
@@ -846,7 +846,7 @@
         <v>22294427048090.8</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.05748999999997295</v>
+        <v>0.01251000000002023</v>
       </c>
     </row>
     <row r="18">
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>433.93</v>
+        <v>434</v>
       </c>
       <c r="D18" t="n">
         <v>433.98749</v>
@@ -870,7 +870,7 @@
         <v>23487982446895</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.05748999999997295</v>
+        <v>0.01251000000002023</v>
       </c>
     </row>
     <row r="19">
@@ -885,7 +885,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>433.93</v>
+        <v>434</v>
       </c>
       <c r="D19" t="n">
         <v>433.93719</v>
@@ -894,7 +894,7 @@
         <v>66840695350615.36</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.007189999999980046</v>
+        <v>0.06281000000001313</v>
       </c>
     </row>
     <row r="20">
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>433.93</v>
+        <v>434</v>
       </c>
       <c r="D20" t="n">
         <v>433.93719</v>
@@ -918,7 +918,7 @@
         <v>53824267187712.68</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.007189999999980046</v>
+        <v>0.06281000000001313</v>
       </c>
     </row>
     <row r="21">
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>433.93</v>
+        <v>434</v>
       </c>
       <c r="D21" t="n">
         <v>433.93719</v>
@@ -942,7 +942,7 @@
         <v>44280028687044.3</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.007189999999980046</v>
+        <v>0.06281000000001313</v>
       </c>
     </row>
     <row r="22">
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>433.93</v>
+        <v>434</v>
       </c>
       <c r="D22" t="n">
         <v>433.93719</v>
@@ -966,7 +966,7 @@
         <v>36849149192146.41</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.007189999999980046</v>
+        <v>0.06281000000001313</v>
       </c>
     </row>
     <row r="23">
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>433.93</v>
+        <v>434</v>
       </c>
       <c r="D23" t="n">
         <v>433.93719</v>
@@ -990,7 +990,7 @@
         <v>32647350863374.83</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.007189999999980046</v>
+        <v>0.06281000000001313</v>
       </c>
     </row>
     <row r="24">
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>433.93</v>
+        <v>434</v>
       </c>
       <c r="D24" t="n">
         <v>433.93719</v>
@@ -1014,7 +1014,7 @@
         <v>32815983489388</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.007189999999980046</v>
+        <v>0.06281000000001313</v>
       </c>
     </row>
     <row r="25">
@@ -1029,7 +1029,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>433.93</v>
+        <v>434</v>
       </c>
       <c r="D25" t="n">
         <v>433.91003</v>
@@ -1038,7 +1038,7 @@
         <v>33418363146838.54</v>
       </c>
       <c r="F25" t="n">
-        <v>0.01997000000000071</v>
+        <v>0.08996999999999389</v>
       </c>
     </row>
     <row r="26">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>433.93</v>
+        <v>434</v>
       </c>
       <c r="D26" t="n">
         <v>433.93719</v>
@@ -1062,7 +1062,7 @@
         <v>32870070528126.05</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.007189999999980046</v>
+        <v>0.06281000000001313</v>
       </c>
     </row>
     <row r="27">
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>433.93</v>
+        <v>434</v>
       </c>
       <c r="D27" t="n">
         <v>433.93719</v>
@@ -1086,7 +1086,7 @@
         <v>31160523654504.68</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.007189999999980046</v>
+        <v>0.06281000000001313</v>
       </c>
     </row>
     <row r="28">
@@ -1101,7 +1101,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>433.93</v>
+        <v>434</v>
       </c>
       <c r="D28" t="n">
         <v>433.93719</v>
@@ -1110,7 +1110,7 @@
         <v>34614731500195.18</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.007189999999980046</v>
+        <v>0.06281000000001313</v>
       </c>
     </row>
     <row r="29">
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>433.93</v>
+        <v>434</v>
       </c>
       <c r="D29" t="n">
         <v>433.93719</v>
@@ -1134,7 +1134,7 @@
         <v>34105718661809.49</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.007189999999980046</v>
+        <v>0.06281000000001313</v>
       </c>
     </row>
     <row r="30">
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>433.93</v>
+        <v>434</v>
       </c>
       <c r="D30" t="n">
         <v>433.91003</v>
@@ -1158,7 +1158,7 @@
         <v>75647447226002.52</v>
       </c>
       <c r="F30" t="n">
-        <v>0.01997000000000071</v>
+        <v>0.08996999999999389</v>
       </c>
     </row>
     <row r="31">
@@ -1173,7 +1173,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>433.93</v>
+        <v>434</v>
       </c>
       <c r="D31" t="n">
         <v>433.91003</v>
@@ -1182,7 +1182,7 @@
         <v>73982988193549</v>
       </c>
       <c r="F31" t="n">
-        <v>0.01997000000000071</v>
+        <v>0.08996999999999389</v>
       </c>
     </row>
     <row r="32">
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>433.93</v>
+        <v>434</v>
       </c>
       <c r="D32" t="n">
         <v>433.88287</v>
@@ -1206,7 +1206,7 @@
         <v>120243122971215.3</v>
       </c>
       <c r="F32" t="n">
-        <v>0.04712999999998146</v>
+        <v>0.1171299999999746</v>
       </c>
     </row>
     <row r="33">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>433.93</v>
+        <v>434</v>
       </c>
       <c r="D33" t="n">
         <v>433.88287</v>
@@ -1230,7 +1230,7 @@
         <v>79412266520912.78</v>
       </c>
       <c r="F33" t="n">
-        <v>0.04712999999998146</v>
+        <v>0.1171299999999746</v>
       </c>
     </row>
     <row r="34">
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>433.93</v>
+        <v>434</v>
       </c>
       <c r="D34" t="n">
         <v>433.88287</v>
@@ -1254,7 +1254,7 @@
         <v>52128004785091.45</v>
       </c>
       <c r="F34" t="n">
-        <v>0.04712999999998146</v>
+        <v>0.1171299999999746</v>
       </c>
     </row>
     <row r="35">
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>433.93</v>
+        <v>434</v>
       </c>
       <c r="D35" t="n">
         <v>433.88287</v>
@@ -1278,7 +1278,7 @@
         <v>44750518245602.66</v>
       </c>
       <c r="F35" t="n">
-        <v>0.04712999999998146</v>
+        <v>0.1171299999999746</v>
       </c>
     </row>
     <row r="36">
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>433.93</v>
+        <v>434</v>
       </c>
       <c r="D36" t="n">
         <v>433.88287</v>
@@ -1302,7 +1302,7 @@
         <v>38517554116261.69</v>
       </c>
       <c r="F36" t="n">
-        <v>0.04712999999998146</v>
+        <v>0.1171299999999746</v>
       </c>
     </row>
     <row r="37">
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>433.93</v>
+        <v>434</v>
       </c>
       <c r="D37" t="n">
         <v>433.88287</v>
@@ -1326,7 +1326,7 @@
         <v>31172278728911.03</v>
       </c>
       <c r="F37" t="n">
-        <v>0.04712999999998146</v>
+        <v>0.1171299999999746</v>
       </c>
     </row>
     <row r="38">
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>433.93</v>
+        <v>434</v>
       </c>
       <c r="D38" t="n">
         <v>433.91003</v>
@@ -1350,7 +1350,7 @@
         <v>28880539752782.98</v>
       </c>
       <c r="F38" t="n">
-        <v>0.01997000000000071</v>
+        <v>0.08996999999999389</v>
       </c>
     </row>
     <row r="39">
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>433.93</v>
+        <v>434</v>
       </c>
       <c r="D39" t="n">
         <v>433.91003</v>
@@ -1374,7 +1374,7 @@
         <v>28223822129425.15</v>
       </c>
       <c r="F39" t="n">
-        <v>0.01997000000000071</v>
+        <v>0.08996999999999389</v>
       </c>
     </row>
     <row r="40">
@@ -1389,7 +1389,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>433.93</v>
+        <v>434</v>
       </c>
       <c r="D40" t="n">
         <v>433.91003</v>
@@ -1398,7 +1398,7 @@
         <v>24395141386518.48</v>
       </c>
       <c r="F40" t="n">
-        <v>0.01997000000000071</v>
+        <v>0.08996999999999389</v>
       </c>
     </row>
     <row r="41">
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>433.93</v>
+        <v>434</v>
       </c>
       <c r="D41" t="n">
         <v>433.91003</v>
@@ -1422,7 +1422,7 @@
         <v>22804343519756.54</v>
       </c>
       <c r="F41" t="n">
-        <v>0.01997000000000071</v>
+        <v>0.08996999999999389</v>
       </c>
     </row>
     <row r="42">
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>433.93</v>
+        <v>434</v>
       </c>
       <c r="D42" t="n">
         <v>433.91003</v>
@@ -1446,7 +1446,7 @@
         <v>93517799954142.44</v>
       </c>
       <c r="F42" t="n">
-        <v>0.01997000000000071</v>
+        <v>0.08996999999999389</v>
       </c>
     </row>
   </sheetData>
